--- a/Sjögren’s syndrome/deg_GSE40611_SS.xlsx
+++ b/Sjögren’s syndrome/deg_GSE40611_SS.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,324 +421,424 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2.768426463519647</v>
+        <v>2.558185147560708</v>
       </c>
       <c r="B3">
-        <v>9.869949897344052</v>
+        <v>9.451219858127537</v>
       </c>
       <c r="C3">
-        <v>5.206192356730932</v>
+        <v>5.735914184319059</v>
       </c>
       <c r="D3">
-        <v>1.874575192391336E-06</v>
+        <v>2.328304181856034E-07</v>
       </c>
       <c r="E3">
-        <v>0.02682163942518894</v>
+        <v>0.006365001557148932</v>
       </c>
       <c r="F3">
-        <v>4.379221936517296</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>CXCL9</t>
-        </is>
+        <v>6.109217723220215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2.308055098636197</v>
+        <v>2.768426463519647</v>
       </c>
       <c r="B4">
-        <v>10.26642052880927</v>
+        <v>9.869949897344052</v>
       </c>
       <c r="C4">
-        <v>5.102807332913549</v>
+        <v>5.206192356730932</v>
       </c>
       <c r="D4">
-        <v>2.79245503147974E-06</v>
+        <v>1.874575192391336E-06</v>
       </c>
       <c r="E4">
-        <v>0.03053549576923095</v>
+        <v>0.02682163942518894</v>
       </c>
       <c r="F4">
-        <v>4.048047443659109</v>
+        <v>4.379221936517296</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>IFIT1</t>
+          <t>CXCL9</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-3.142285696039245</v>
+        <v>3.422482831182968</v>
       </c>
       <c r="B5">
-        <v>7.349282539562108</v>
+        <v>11.67166742887256</v>
       </c>
       <c r="C5">
-        <v>-4.966801807299915</v>
+        <v>5.194373488745801</v>
       </c>
       <c r="D5">
-        <v>4.694557232067246E-06</v>
+        <v>1.962259857352643E-06</v>
       </c>
       <c r="E5">
-        <v>0.03619178422702005</v>
+        <v>0.02682163942518894</v>
       </c>
       <c r="F5">
-        <v>3.616184542877058</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>FOSB</t>
-        </is>
+        <v>4.341241882900289</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2.542487151212412</v>
+        <v>2.308055098636197</v>
       </c>
       <c r="B6">
-        <v>8.750081248463992</v>
+        <v>10.26642052880927</v>
       </c>
       <c r="C6">
-        <v>4.924995701501202</v>
+        <v>5.102807332913549</v>
       </c>
       <c r="D6">
-        <v>5.501057295013878E-06</v>
+        <v>2.79245503147974E-06</v>
       </c>
       <c r="E6">
-        <v>0.03619178422702005</v>
+        <v>0.03053549576923095</v>
       </c>
       <c r="F6">
-        <v>3.48435617151877</v>
+        <v>4.048047443659109</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ISG20</t>
+          <t>IFIT1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-2.605238101473339</v>
+        <v>-1.853163252894038</v>
       </c>
       <c r="B7">
-        <v>8.869562378404339</v>
+        <v>7.691758145983829</v>
       </c>
       <c r="C7">
-        <v>-4.876005816765259</v>
+        <v>-5.012080613714271</v>
       </c>
       <c r="D7">
-        <v>6.619439273346146E-06</v>
+        <v>3.95145024991906E-06</v>
       </c>
       <c r="E7">
-        <v>0.03619178422702005</v>
+        <v>0.03600759040238743</v>
       </c>
       <c r="F7">
-        <v>3.330450536418948</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>TXLNGY</t>
-        </is>
+        <v>3.759460298058216</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-2.766957844865683</v>
+        <v>-3.142285696039245</v>
       </c>
       <c r="B8">
-        <v>7.555618740597456</v>
+        <v>7.349282539562108</v>
       </c>
       <c r="C8">
-        <v>-4.825042152908752</v>
+        <v>-4.966801807299915</v>
       </c>
       <c r="D8">
-        <v>8.018162773845989E-06</v>
+        <v>4.694557232067246E-06</v>
       </c>
       <c r="E8">
-        <v>0.03776347525584855</v>
+        <v>0.03619178422702005</v>
       </c>
       <c r="F8">
-        <v>3.171021409955913</v>
+        <v>3.616184542877058</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>TXLNGY</t>
+          <t>FOSB</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1.944699106693785</v>
+        <v>2.542487151212412</v>
       </c>
       <c r="B9">
-        <v>8.486352351331359</v>
+        <v>8.750081248463992</v>
       </c>
       <c r="C9">
-        <v>4.816210425817901</v>
+        <v>4.924995701501202</v>
       </c>
       <c r="D9">
-        <v>8.288279891544263E-06</v>
+        <v>5.501057295013878E-06</v>
       </c>
       <c r="E9">
-        <v>0.03776347525584855</v>
+        <v>0.03619178422702005</v>
       </c>
       <c r="F9">
-        <v>3.14346487533935</v>
+        <v>3.48435617151877</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>BTN3A3</t>
+          <t>ISG20</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1.915993184865038</v>
+        <v>-2.026442115325751</v>
       </c>
       <c r="B10">
-        <v>6.897664930441417</v>
+        <v>7.582033640491716</v>
       </c>
       <c r="C10">
-        <v>4.741394804840406</v>
+        <v>-4.885765639797365</v>
       </c>
       <c r="D10">
-        <v>1.096236235628195E-05</v>
+        <v>6.380219022232852E-06</v>
       </c>
       <c r="E10">
-        <v>0.04318990921763884</v>
+        <v>0.03619178422702005</v>
       </c>
       <c r="F10">
-        <v>2.910897854269115</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>CLCN4</t>
-        </is>
+        <v>3.361061479716885</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1.961005590571419</v>
+        <v>-2.605238101473339</v>
       </c>
       <c r="B11">
-        <v>8.931611424671868</v>
+        <v>8.869562378404339</v>
       </c>
       <c r="C11">
-        <v>4.739034721999726</v>
+        <v>-4.876005816765259</v>
       </c>
       <c r="D11">
-        <v>1.105914456418736E-05</v>
+        <v>6.619439273346146E-06</v>
       </c>
       <c r="E11">
-        <v>0.04318990921763884</v>
+        <v>0.03619178422702005</v>
       </c>
       <c r="F11">
-        <v>2.903587199588896</v>
+        <v>3.330450536418948</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FLI1</t>
+          <t>TXLNGY</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1.885551393839076</v>
+        <v>-2.766957844865683</v>
       </c>
       <c r="B12">
-        <v>9.505722139642488</v>
+        <v>7.555618740597456</v>
       </c>
       <c r="C12">
-        <v>4.692459860349611</v>
+        <v>-4.825042152908752</v>
       </c>
       <c r="D12">
-        <v>1.314873051307663E-05</v>
+        <v>8.018162773845989E-06</v>
       </c>
       <c r="E12">
-        <v>0.04584542775387888</v>
+        <v>0.03776347525584855</v>
       </c>
       <c r="F12">
-        <v>2.759645132089017</v>
+        <v>3.171021409955913</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>IFIT3</t>
+          <t>TXLNGY</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1.637737334107337</v>
+        <v>1.944699106693785</v>
       </c>
       <c r="B13">
-        <v>10.86987864531291</v>
+        <v>8.486352351331359</v>
       </c>
       <c r="C13">
-        <v>4.680762707045491</v>
+        <v>4.816210425817901</v>
       </c>
       <c r="D13">
-        <v>1.37312131811472E-05</v>
+        <v>8.288279891544263E-06</v>
       </c>
       <c r="E13">
-        <v>0.04584542775387888</v>
+        <v>0.03776347525584855</v>
       </c>
       <c r="F13">
-        <v>2.723594062271913</v>
+        <v>3.14346487533935</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>COL3A1</t>
+          <t>BTN3A3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1.886009481127258</v>
+        <v>1.915993184865038</v>
       </c>
       <c r="B14">
-        <v>7.819222403767914</v>
+        <v>6.897664930441417</v>
       </c>
       <c r="C14">
-        <v>4.670656830895003</v>
+        <v>4.741394804840406</v>
       </c>
       <c r="D14">
-        <v>1.425463688735146E-05</v>
+        <v>1.096236235628195E-05</v>
       </c>
       <c r="E14">
-        <v>0.04584542775387888</v>
+        <v>0.04318990921763884</v>
       </c>
       <c r="F14">
-        <v>2.692479957381502</v>
+        <v>2.910897854269115</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>WDFY4</t>
+          <t>CLCN4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>1.961005590571419</v>
+      </c>
+      <c r="B15">
+        <v>8.931611424671868</v>
+      </c>
+      <c r="C15">
+        <v>4.739034721999726</v>
+      </c>
+      <c r="D15">
+        <v>1.105914456418736E-05</v>
+      </c>
+      <c r="E15">
+        <v>0.04318990921763884</v>
+      </c>
+      <c r="F15">
+        <v>2.903587199588896</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>FLI1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>1.885551393839076</v>
+      </c>
+      <c r="B16">
+        <v>9.505722139642488</v>
+      </c>
+      <c r="C16">
+        <v>4.692459860349611</v>
+      </c>
+      <c r="D16">
+        <v>1.314873051307663E-05</v>
+      </c>
+      <c r="E16">
+        <v>0.04584542775387888</v>
+      </c>
+      <c r="F16">
+        <v>2.759645132089017</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>IFIT3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>1.637737334107337</v>
+      </c>
+      <c r="B17">
+        <v>10.86987864531291</v>
+      </c>
+      <c r="C17">
+        <v>4.680762707045491</v>
+      </c>
+      <c r="D17">
+        <v>1.37312131811472E-05</v>
+      </c>
+      <c r="E17">
+        <v>0.04584542775387888</v>
+      </c>
+      <c r="F17">
+        <v>2.723594062271913</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>COL3A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>1.886009481127258</v>
+      </c>
+      <c r="B18">
+        <v>7.819222403767914</v>
+      </c>
+      <c r="C18">
+        <v>4.670656830895003</v>
+      </c>
+      <c r="D18">
+        <v>1.425463688735146E-05</v>
+      </c>
+      <c r="E18">
+        <v>0.04584542775387888</v>
+      </c>
+      <c r="F18">
+        <v>2.692479957381502</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>WDFY4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>-2.301614035867543</v>
+      </c>
+      <c r="B19">
+        <v>7.511704715138358</v>
+      </c>
+      <c r="C19">
+        <v>-4.642299623838949</v>
+      </c>
+      <c r="D19">
+        <v>1.582931110638291E-05</v>
+      </c>
+      <c r="E19">
+        <v>0.0480815324856381</v>
+      </c>
+      <c r="F19">
+        <v>2.60533615954012</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
         <v>2.008001219849515</v>
       </c>
-      <c r="B15">
+      <c r="B20">
         <v>9.83889522361029</v>
       </c>
-      <c r="C15">
+      <c r="C20">
         <v>4.621160824729383</v>
       </c>
-      <c r="D15">
+      <c r="D20">
         <v>1.711208319271606E-05</v>
       </c>
-      <c r="E15">
+      <c r="E20">
         <v>0.04924227097693424</v>
       </c>
-      <c r="F15">
+      <c r="F20">
         <v>2.540532814434912</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>MX1</t>
         </is>
